--- a/マニュアル情報テーブル3章.xlsx
+++ b/マニュアル情報テーブル3章.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
@@ -2160,8 +2160,16 @@
           <t>i-CP00060-01</t>
         </is>
       </c>
-      <c r="U14" s="23" t="n"/>
-      <c r="V14" s="23" t="n"/>
+      <c r="U14" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00060-01-2</t>
+        </is>
+      </c>
+      <c r="V14" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00060-01-3</t>
+        </is>
+      </c>
       <c r="W14" s="23" t="n"/>
       <c r="X14" s="23" t="n"/>
       <c r="Y14" s="23" t="n"/>
@@ -2241,7 +2249,11 @@
           <t>i-CP00060-02</t>
         </is>
       </c>
-      <c r="U15" s="23" t="n"/>
+      <c r="U15" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00060-02-02</t>
+        </is>
+      </c>
       <c r="V15" s="23" t="n"/>
       <c r="W15" s="23" t="n"/>
       <c r="X15" s="23" t="n"/>
@@ -2322,7 +2334,11 @@
           <t>i-CP00060-03</t>
         </is>
       </c>
-      <c r="U16" s="23" t="n"/>
+      <c r="U16" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00060-03-02</t>
+        </is>
+      </c>
       <c r="V16" s="23" t="n"/>
       <c r="W16" s="23" t="n"/>
       <c r="X16" s="23" t="n"/>
@@ -2478,7 +2494,11 @@
           <t>i-CP00090-01</t>
         </is>
       </c>
-      <c r="U18" s="23" t="n"/>
+      <c r="U18" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00090-01-2</t>
+        </is>
+      </c>
       <c r="V18" s="23" t="n"/>
       <c r="W18" s="23" t="n"/>
       <c r="X18" s="23" t="n"/>
@@ -2559,8 +2579,16 @@
           <t>i-CP00090-02</t>
         </is>
       </c>
-      <c r="U19" s="23" t="n"/>
-      <c r="V19" s="23" t="n"/>
+      <c r="U19" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00090-02-2</t>
+        </is>
+      </c>
+      <c r="V19" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00090-02-3</t>
+        </is>
+      </c>
       <c r="W19" s="23" t="n"/>
       <c r="X19" s="23" t="n"/>
       <c r="Y19" s="23" t="n"/>
@@ -2640,8 +2668,16 @@
           <t>i-CP00090-03</t>
         </is>
       </c>
-      <c r="U20" s="23" t="n"/>
-      <c r="V20" s="23" t="n"/>
+      <c r="U20" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00090-03-2</t>
+        </is>
+      </c>
+      <c r="V20" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00090-03-3</t>
+        </is>
+      </c>
       <c r="W20" s="23" t="n"/>
       <c r="X20" s="23" t="n"/>
       <c r="Y20" s="23" t="n"/>
@@ -2718,7 +2754,11 @@
           <t>i-CP00120-01</t>
         </is>
       </c>
-      <c r="U21" s="23" t="n"/>
+      <c r="U21" s="23" t="inlineStr">
+        <is>
+          <t>i-CP00120-01-2</t>
+        </is>
+      </c>
       <c r="V21" s="23" t="n"/>
       <c r="W21" s="23" t="n"/>
       <c r="X21" s="23" t="n"/>
@@ -3625,6 +3665,7 @@
       <c r="AK32" s="23" t="n"/>
       <c r="AM32" s="23" t="n"/>
     </row>
+    <row r="33"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7019,7 +7060,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -7045,292 +7086,292 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7374,7 +7415,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -7395,292 +7436,292 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7724,7 +7765,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -7737,7 +7778,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -7745,292 +7786,292 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8074,7 +8115,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -8139,7 +8180,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -8152,7 +8193,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -8160,277 +8201,277 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8531,7 +8572,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -8544,283 +8585,283 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8859,298 +8900,298 @@
       </c>
     </row>
     <row r="2">
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9194,7 +9235,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -9259,7 +9300,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -9267,280 +9308,280 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9641,7 +9682,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -9654,7 +9695,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -9667,7 +9708,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="23" t="inlineStr">
@@ -9680,7 +9721,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -9693,7 +9734,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -9701,7 +9742,7 @@
           <t>【申請承認状況】</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="23" t="inlineStr">
@@ -9714,268 +9755,268 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10019,298 +10060,298 @@
           <t>【申請承認状況】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10354,7 +10395,7 @@
           <t>【申請承認状況】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -10367,295 +10408,295 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10793,7 +10834,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -10858,7 +10899,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -10905,271 +10946,271 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11213,7 +11254,7 @@
           <t>【抽出条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -11317,7 +11358,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -11330,7 +11371,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="23" t="inlineStr">
@@ -11338,7 +11379,7 @@
           <t>【変更内容】</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="23" t="inlineStr">
@@ -11351,7 +11392,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="23" t="inlineStr">
@@ -11364,7 +11405,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="23" t="inlineStr">
@@ -11377,7 +11418,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
@@ -11390,7 +11431,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="23" t="inlineStr">
@@ -11398,7 +11439,7 @@
           <t>【変更対象】</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -11406,7 +11447,7 @@
           <t>【申請承認状況】</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -11419,247 +11460,247 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11703,7 +11744,7 @@
           <t>【抽出条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -11711,7 +11752,7 @@
           <t>【変更内容】</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -11719,7 +11760,7 @@
           <t>【変更対象】</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -11727,289 +11768,289 @@
           <t>【申請承認状況】</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12053,7 +12094,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -12079,7 +12120,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -12092,7 +12133,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -12126,280 +12167,280 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12443,7 +12484,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -12456,7 +12497,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -12477,289 +12518,289 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12808,298 +12849,298 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13143,7 +13184,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -13182,7 +13223,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -13203,283 +13244,283 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13554,7 +13595,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -13580,286 +13621,286 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13898,298 +13939,298 @@
       </c>
     </row>
     <row r="2">
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14233,7 +14274,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -14259,292 +14300,292 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15286,7 +15327,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -15307,7 +15348,7 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -15320,289 +15361,289 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15649,7 +15690,7 @@
           <t>【検索条件】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -15662,7 +15703,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -15670,292 +15711,292 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15999,7 +16040,7 @@
           <t>【基本情報】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -16012,7 +16053,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -16020,7 +16061,7 @@
           <t>【明細操作ボタン】</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="23" t="inlineStr">
@@ -16033,7 +16074,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="23" t="inlineStr">
@@ -16041,7 +16082,7 @@
           <t>【ヘッダ部】</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="23" t="inlineStr">
@@ -16049,7 +16090,7 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="23" t="inlineStr">
@@ -16075,7 +16116,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="23" t="inlineStr">
@@ -16088,7 +16129,7 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="23" t="inlineStr">
@@ -16101,271 +16142,271 @@
           <t>入力テキスト</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16409,7 +16450,7 @@
           <t>【基本情報】</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="23" t="inlineStr">
@@ -16417,7 +16458,7 @@
           <t>【ヘッダ部】</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="23" t="inlineStr">
@@ -16425,292 +16466,292 @@
           <t>【明細情報】</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" s="23" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="23" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" s="23" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" s="23" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" s="23" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" s="23" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="23" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" s="23" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" s="23" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" s="23" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" s="23" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" s="23" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" s="23" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" s="23" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" s="23" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" s="23" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" s="23" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" s="23" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" s="23" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" s="23" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" s="23" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" s="23" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" s="23" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" s="23" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" s="23" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" s="23" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" s="23" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" s="23" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" s="23" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" s="23" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" s="23" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" s="23" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" s="23" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" s="23" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" s="23" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" s="23" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" s="23" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" s="23" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" s="23" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" s="23" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="23" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="23" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="23" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" s="23" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" s="23" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" s="23" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" s="23" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="23" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" s="23" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" s="23" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="23" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" s="23" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" s="23" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" s="23" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="23" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="23" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" s="23" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" s="23" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" s="23" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" s="23" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" s="23" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="23" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" s="23" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" s="23" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" s="23" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" s="23" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" s="23" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" s="23" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" s="23" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" s="23" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" s="23" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" s="23" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" s="23" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" s="23" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" s="23" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
